--- a/2021-01-13/2021-01-13.xlsx
+++ b/2021-01-13/2021-01-13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiude/footballgame/2021-01-13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2544B5-D370-3A41-8345-7B67DA0B0BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB99A0C6-26C0-924D-B48C-E8468964E757}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C1DE7E5F-0ED3-4742-A337-4A02AF2E0F75}"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="27800" windowHeight="17540" xr2:uid="{C1DE7E5F-0ED3-4742-A337-4A02AF2E0F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A884A3DC-E102-6341-BC2A-128800A4DC79}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
